--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/App-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/App-Lrp1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>101.8923455</v>
+        <v>106.701225</v>
       </c>
       <c r="H2">
-        <v>203.784691</v>
+        <v>213.40245</v>
       </c>
       <c r="I2">
-        <v>0.1893849302940161</v>
+        <v>0.181220606382352</v>
       </c>
       <c r="J2">
-        <v>0.138161740144498</v>
+        <v>0.131398665727629</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N2">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O2">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P2">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q2">
-        <v>205.725332612393</v>
+        <v>1156.256407681425</v>
       </c>
       <c r="R2">
-        <v>822.901330449572</v>
+        <v>4625.0256307257</v>
       </c>
       <c r="S2">
-        <v>0.0007528720128397955</v>
+        <v>0.003346894981828269</v>
       </c>
       <c r="T2">
-        <v>0.0003740117799768942</v>
+        <v>0.001658641012638651</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>101.8923455</v>
+        <v>106.701225</v>
       </c>
       <c r="H3">
-        <v>203.784691</v>
+        <v>213.40245</v>
       </c>
       <c r="I3">
-        <v>0.1893849302940161</v>
+        <v>0.181220606382352</v>
       </c>
       <c r="J3">
-        <v>0.138161740144498</v>
+        <v>0.131398665727629</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O3">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P3">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q3">
-        <v>14233.83252435916</v>
+        <v>14905.60806448375</v>
       </c>
       <c r="R3">
-        <v>85402.99514615495</v>
+        <v>89433.64838690248</v>
       </c>
       <c r="S3">
-        <v>0.05209010483521402</v>
+        <v>0.04314571102110144</v>
       </c>
       <c r="T3">
-        <v>0.03881598564498721</v>
+        <v>0.03207297190721635</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>101.8923455</v>
+        <v>106.701225</v>
       </c>
       <c r="H4">
-        <v>203.784691</v>
+        <v>213.40245</v>
       </c>
       <c r="I4">
-        <v>0.1893849302940161</v>
+        <v>0.181220606382352</v>
       </c>
       <c r="J4">
-        <v>0.138161740144498</v>
+        <v>0.131398665727629</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N4">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O4">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P4">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q4">
-        <v>18988.13313540594</v>
+        <v>16018.081794078</v>
       </c>
       <c r="R4">
-        <v>113928.7988124357</v>
+        <v>96108.49076446799</v>
       </c>
       <c r="S4">
-        <v>0.06948893377490602</v>
+        <v>0.04636587284529489</v>
       </c>
       <c r="T4">
-        <v>0.05178107174913572</v>
+        <v>0.03446672454866744</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>101.8923455</v>
+        <v>106.701225</v>
       </c>
       <c r="H5">
-        <v>203.784691</v>
+        <v>213.40245</v>
       </c>
       <c r="I5">
-        <v>0.1893849302940161</v>
+        <v>0.181220606382352</v>
       </c>
       <c r="J5">
-        <v>0.138161740144498</v>
+        <v>0.131398665727629</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N5">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O5">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P5">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q5">
-        <v>3053.033412282615</v>
+        <v>3464.505868898175</v>
       </c>
       <c r="R5">
-        <v>12212.13364913046</v>
+        <v>13858.0234755927</v>
       </c>
       <c r="S5">
-        <v>0.01117287492592391</v>
+        <v>0.01002834425833051</v>
       </c>
       <c r="T5">
-        <v>0.005550461123852692</v>
+        <v>0.004969807288856187</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>101.8923455</v>
+        <v>106.701225</v>
       </c>
       <c r="H6">
-        <v>203.784691</v>
+        <v>213.40245</v>
       </c>
       <c r="I6">
-        <v>0.1893849302940161</v>
+        <v>0.181220606382352</v>
       </c>
       <c r="J6">
-        <v>0.138161740144498</v>
+        <v>0.131398665727629</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N6">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O6">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P6">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q6">
-        <v>637.2057234026477</v>
+        <v>5558.092454111074</v>
       </c>
       <c r="R6">
-        <v>3823.234340415886</v>
+        <v>33348.55472466644</v>
       </c>
       <c r="S6">
-        <v>0.002331916781853291</v>
+        <v>0.01608843126803003</v>
       </c>
       <c r="T6">
-        <v>0.001737674527937053</v>
+        <v>0.01195956195595767</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>101.8923455</v>
+        <v>106.701225</v>
       </c>
       <c r="H7">
-        <v>203.784691</v>
+        <v>213.40245</v>
       </c>
       <c r="I7">
-        <v>0.1893849302940161</v>
+        <v>0.181220606382352</v>
       </c>
       <c r="J7">
-        <v>0.138161740144498</v>
+        <v>0.131398665727629</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N7">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O7">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P7">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q7">
-        <v>14632.27058606837</v>
+        <v>21503.987277202</v>
       </c>
       <c r="R7">
-        <v>87793.62351641023</v>
+        <v>129023.923663212</v>
       </c>
       <c r="S7">
-        <v>0.05354822796327905</v>
+        <v>0.06224535200776687</v>
       </c>
       <c r="T7">
-        <v>0.03990253531860842</v>
+        <v>0.04627095901429265</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>216.91135</v>
       </c>
       <c r="I8">
-        <v>0.1343893586842299</v>
+        <v>0.1228002345746721</v>
       </c>
       <c r="J8">
-        <v>0.147061339230297</v>
+        <v>0.1335592068937293</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N8">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O8">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P8">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q8">
-        <v>145.9846645240333</v>
+        <v>783.5122115868501</v>
       </c>
       <c r="R8">
-        <v>875.9079871442</v>
+        <v>4701.073269521101</v>
       </c>
       <c r="S8">
-        <v>0.000534245184238095</v>
+        <v>0.002267951184304882</v>
       </c>
       <c r="T8">
-        <v>0.0003981035067579786</v>
+        <v>0.001685913452337669</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>216.91135</v>
       </c>
       <c r="I9">
-        <v>0.1343893586842299</v>
+        <v>0.1228002345746721</v>
       </c>
       <c r="J9">
-        <v>0.147061339230297</v>
+        <v>0.1335592068937293</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O9">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P9">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q9">
         <v>10100.46375705639</v>
@@ -1013,10 +1013,10 @@
         <v>90904.17381350748</v>
       </c>
       <c r="S9">
-        <v>0.03696363682015676</v>
+        <v>0.02923676032240802</v>
       </c>
       <c r="T9">
-        <v>0.04131629224216257</v>
+        <v>0.03260033628904623</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>216.91135</v>
       </c>
       <c r="I10">
-        <v>0.1343893586842299</v>
+        <v>0.1228002345746721</v>
       </c>
       <c r="J10">
-        <v>0.147061339230297</v>
+        <v>0.1335592068937293</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N10">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O10">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P10">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q10">
-        <v>13474.16096262971</v>
+        <v>10854.30758132933</v>
       </c>
       <c r="R10">
-        <v>121267.4486636674</v>
+        <v>97688.768231964</v>
       </c>
       <c r="S10">
-        <v>0.04931001231810051</v>
+        <v>0.0314188335163639</v>
       </c>
       <c r="T10">
-        <v>0.05511651597789497</v>
+        <v>0.03503344854723831</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>216.91135</v>
       </c>
       <c r="I11">
-        <v>0.1343893586842299</v>
+        <v>0.1228002345746721</v>
       </c>
       <c r="J11">
-        <v>0.147061339230297</v>
+        <v>0.1335592068937293</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N11">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O11">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P11">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q11">
-        <v>2166.461722594358</v>
+        <v>2347.647664793683</v>
       </c>
       <c r="R11">
-        <v>12998.77033556615</v>
+        <v>14085.8859887621</v>
       </c>
       <c r="S11">
-        <v>0.007928378956144795</v>
+        <v>0.00679549115248121</v>
       </c>
       <c r="T11">
-        <v>0.0059079904853962</v>
+        <v>0.005051524048883391</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>216.91135</v>
       </c>
       <c r="I12">
-        <v>0.1343893586842299</v>
+        <v>0.1228002345746721</v>
       </c>
       <c r="J12">
-        <v>0.147061339230297</v>
+        <v>0.1335592068937293</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N12">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O12">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P12">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q12">
-        <v>452.1672784896777</v>
+        <v>3766.321450842594</v>
       </c>
       <c r="R12">
-        <v>4069.5055064071</v>
+        <v>33896.89305758334</v>
       </c>
       <c r="S12">
-        <v>0.00165475046156911</v>
+        <v>0.0109019783847549</v>
       </c>
       <c r="T12">
-        <v>0.001849605708190508</v>
+        <v>0.01215620874678533</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>216.91135</v>
       </c>
       <c r="I13">
-        <v>0.1343893586842299</v>
+        <v>0.1228002345746721</v>
       </c>
       <c r="J13">
-        <v>0.147061339230297</v>
+        <v>0.1335592068937293</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N13">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O13">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P13">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q13">
-        <v>10383.19921813748</v>
+        <v>14571.71308851955</v>
       </c>
       <c r="R13">
-        <v>93448.7929632373</v>
+        <v>131145.417796676</v>
       </c>
       <c r="S13">
-        <v>0.0379983349440206</v>
+        <v>0.04217922001435917</v>
       </c>
       <c r="T13">
-        <v>0.04247283130989478</v>
+        <v>0.0470317758094384</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>152.0737866666666</v>
+        <v>140.5663226666667</v>
       </c>
       <c r="H14">
-        <v>456.2213599999999</v>
+        <v>421.698968</v>
       </c>
       <c r="I14">
-        <v>0.2826560066517826</v>
+        <v>0.2387368489030063</v>
       </c>
       <c r="J14">
-        <v>0.3093084994725608</v>
+        <v>0.2596534469680085</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N14">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O14">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P14">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q14">
-        <v>307.0439706741866</v>
+        <v>1523.231914980808</v>
       </c>
       <c r="R14">
-        <v>1842.26382404512</v>
+        <v>9139.391489884849</v>
       </c>
       <c r="S14">
-        <v>0.001123657496606582</v>
+        <v>0.004409140756791872</v>
       </c>
       <c r="T14">
-        <v>0.0008373159047412418</v>
+        <v>0.003277596875350746</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>152.0737866666666</v>
+        <v>140.5663226666667</v>
       </c>
       <c r="H15">
-        <v>456.2213599999999</v>
+        <v>421.698968</v>
       </c>
       <c r="I15">
-        <v>0.2826560066517826</v>
+        <v>0.2387368489030063</v>
       </c>
       <c r="J15">
-        <v>0.3093084994725608</v>
+        <v>0.2596534469680085</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O15">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P15">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q15">
-        <v>21243.91974820577</v>
+        <v>19636.3866744275</v>
       </c>
       <c r="R15">
-        <v>191195.277733852</v>
+        <v>176727.4800698476</v>
       </c>
       <c r="S15">
-        <v>0.07774420591932137</v>
+        <v>0.05683940308159442</v>
       </c>
       <c r="T15">
-        <v>0.08689897986839716</v>
+        <v>0.06337855612232252</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>152.0737866666666</v>
+        <v>140.5663226666667</v>
       </c>
       <c r="H16">
-        <v>456.2213599999999</v>
+        <v>421.698968</v>
       </c>
       <c r="I16">
-        <v>0.2826560066517826</v>
+        <v>0.2387368489030063</v>
       </c>
       <c r="J16">
-        <v>0.3093084994725608</v>
+        <v>0.2596534469680085</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N16">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O16">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P16">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q16">
-        <v>28339.68826080255</v>
+        <v>21101.94005708394</v>
       </c>
       <c r="R16">
-        <v>255057.1943472229</v>
+        <v>189917.4605137555</v>
       </c>
       <c r="S16">
-        <v>0.1037118660751526</v>
+        <v>0.06108158779895319</v>
       </c>
       <c r="T16">
-        <v>0.115924463509618</v>
+        <v>0.06810878775062482</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>152.0737866666666</v>
+        <v>140.5663226666667</v>
       </c>
       <c r="H17">
-        <v>456.2213599999999</v>
+        <v>421.698968</v>
       </c>
       <c r="I17">
-        <v>0.2826560066517826</v>
+        <v>0.2387368489030063</v>
       </c>
       <c r="J17">
-        <v>0.3093084994725608</v>
+        <v>0.2596534469680085</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N17">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O17">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P17">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q17">
-        <v>4556.636217837106</v>
+        <v>4564.079276953954</v>
       </c>
       <c r="R17">
-        <v>27339.81730702264</v>
+        <v>27384.47566172373</v>
       </c>
       <c r="S17">
-        <v>0.01667545672445337</v>
+        <v>0.01321116486552897</v>
       </c>
       <c r="T17">
-        <v>0.01242605079962166</v>
+        <v>0.009820705455206965</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>152.0737866666666</v>
+        <v>140.5663226666667</v>
       </c>
       <c r="H18">
-        <v>456.2213599999999</v>
+        <v>421.698968</v>
       </c>
       <c r="I18">
-        <v>0.2826560066517826</v>
+        <v>0.2387368489030063</v>
       </c>
       <c r="J18">
-        <v>0.3093084994725608</v>
+        <v>0.2596534469680085</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N18">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O18">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P18">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q18">
-        <v>951.0261714753954</v>
+        <v>7322.133530479546</v>
       </c>
       <c r="R18">
-        <v>8559.235543278559</v>
+        <v>65899.20177431592</v>
       </c>
       <c r="S18">
-        <v>0.003480373461497921</v>
+        <v>0.02119461722039647</v>
       </c>
       <c r="T18">
-        <v>0.003890205061443011</v>
+        <v>0.02363297579085625</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>152.0737866666666</v>
+        <v>140.5663226666667</v>
       </c>
       <c r="H19">
-        <v>456.2213599999999</v>
+        <v>421.698968</v>
       </c>
       <c r="I19">
-        <v>0.2826560066517826</v>
+        <v>0.2387368489030063</v>
       </c>
       <c r="J19">
-        <v>0.3093084994725608</v>
+        <v>0.2596534469680085</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N19">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O19">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P19">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q19">
-        <v>21838.58644764147</v>
+        <v>28328.97573787996</v>
       </c>
       <c r="R19">
-        <v>196547.2780287733</v>
+        <v>254960.7816409197</v>
       </c>
       <c r="S19">
-        <v>0.07992044697475073</v>
+        <v>0.08200093517974141</v>
       </c>
       <c r="T19">
-        <v>0.0893314843287397</v>
+        <v>0.09143482497364723</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>37.1872365</v>
+        <v>35.5906295</v>
       </c>
       <c r="H20">
-        <v>74.37447299999999</v>
+        <v>71.181259</v>
       </c>
       <c r="I20">
-        <v>0.06911905067863602</v>
+        <v>0.06044687359043559</v>
       </c>
       <c r="J20">
-        <v>0.05042433051072508</v>
+        <v>0.0438285617499367</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N20">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O20">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P20">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q20">
-        <v>75.08274110637899</v>
+        <v>385.6740483793935</v>
       </c>
       <c r="R20">
-        <v>300.330964425516</v>
+        <v>1542.696193517574</v>
       </c>
       <c r="S20">
-        <v>0.0002747726481152062</v>
+        <v>0.001116370494093757</v>
       </c>
       <c r="T20">
-        <v>0.0001365015639549364</v>
+        <v>0.0005532464857299158</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>37.1872365</v>
+        <v>35.5906295</v>
       </c>
       <c r="H21">
-        <v>74.37447299999999</v>
+        <v>71.181259</v>
       </c>
       <c r="I21">
-        <v>0.06911905067863602</v>
+        <v>0.06044687359043559</v>
       </c>
       <c r="J21">
-        <v>0.05042433051072508</v>
+        <v>0.0438285617499367</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O21">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P21">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q21">
-        <v>5194.864185207473</v>
+        <v>4971.826463053757</v>
       </c>
       <c r="R21">
-        <v>31169.18511124484</v>
+        <v>29830.95877832254</v>
       </c>
       <c r="S21">
-        <v>0.01901111450827184</v>
+        <v>0.01439142817213287</v>
       </c>
       <c r="T21">
-        <v>0.0141665130101529</v>
+        <v>0.01069807080578171</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>37.1872365</v>
+        <v>35.5906295</v>
       </c>
       <c r="H22">
-        <v>74.37447299999999</v>
+        <v>71.181259</v>
       </c>
       <c r="I22">
-        <v>0.06911905067863602</v>
+        <v>0.06044687359043559</v>
       </c>
       <c r="J22">
-        <v>0.05042433051072508</v>
+        <v>0.0438285617499367</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N22">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O22">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P22">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q22">
-        <v>6930.022016225225</v>
+        <v>5342.89662029396</v>
       </c>
       <c r="R22">
-        <v>41580.13209735135</v>
+        <v>32057.37972176376</v>
       </c>
       <c r="S22">
-        <v>0.02536109461156989</v>
+        <v>0.01546552630376082</v>
       </c>
       <c r="T22">
-        <v>0.01889832795495495</v>
+        <v>0.01149651677841728</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>37.1872365</v>
+        <v>35.5906295</v>
       </c>
       <c r="H23">
-        <v>74.37447299999999</v>
+        <v>71.181259</v>
       </c>
       <c r="I23">
-        <v>0.06911905067863602</v>
+        <v>0.06044687359043559</v>
       </c>
       <c r="J23">
-        <v>0.05042433051072508</v>
+        <v>0.0438285617499367</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N23">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O23">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P23">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q23">
-        <v>1114.253234507744</v>
+        <v>1155.600085945878</v>
       </c>
       <c r="R23">
-        <v>4457.012938030976</v>
+        <v>4622.400343783514</v>
       </c>
       <c r="S23">
-        <v>0.004077718892586022</v>
+        <v>0.003344995195666157</v>
       </c>
       <c r="T23">
-        <v>0.002025729307573608</v>
+        <v>0.001657699524106495</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>37.1872365</v>
+        <v>35.5906295</v>
       </c>
       <c r="H24">
-        <v>74.37447299999999</v>
+        <v>71.181259</v>
       </c>
       <c r="I24">
-        <v>0.06911905067863602</v>
+        <v>0.06044687359043559</v>
       </c>
       <c r="J24">
-        <v>0.05042433051072508</v>
+        <v>0.0438285617499367</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N24">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O24">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P24">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q24">
-        <v>232.558391104343</v>
+        <v>1853.924444269623</v>
       </c>
       <c r="R24">
-        <v>1395.350346626058</v>
+        <v>11123.54666561774</v>
       </c>
       <c r="S24">
-        <v>0.0008510702196476303</v>
+        <v>0.005366361974725895</v>
       </c>
       <c r="T24">
-        <v>0.000634192031926687</v>
+        <v>0.00398916074821807</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>37.1872365</v>
+        <v>35.5906295</v>
       </c>
       <c r="H25">
-        <v>74.37447299999999</v>
+        <v>71.181259</v>
       </c>
       <c r="I25">
-        <v>0.06911905067863602</v>
+        <v>0.06044687359043559</v>
       </c>
       <c r="J25">
-        <v>0.05042433051072508</v>
+        <v>0.0438285617499367</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N25">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O25">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P25">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q25">
-        <v>5340.280510238308</v>
+        <v>7172.742805488972</v>
       </c>
       <c r="R25">
-        <v>32041.68306142985</v>
+        <v>43036.45683293384</v>
       </c>
       <c r="S25">
-        <v>0.01954327979844542</v>
+        <v>0.0207621914500561</v>
       </c>
       <c r="T25">
-        <v>0.01456306664216199</v>
+        <v>0.01543386740768323</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>88.97649266666667</v>
+        <v>69.033643</v>
       </c>
       <c r="H26">
-        <v>266.929478</v>
+        <v>207.100929</v>
       </c>
       <c r="I26">
-        <v>0.1653785353432923</v>
+        <v>0.117246251345688</v>
       </c>
       <c r="J26">
-        <v>0.180972579418846</v>
+        <v>0.1275186191234094</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N26">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O26">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P26">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q26">
-        <v>179.6476316126627</v>
+        <v>748.075685769699</v>
       </c>
       <c r="R26">
-        <v>1077.885789675976</v>
+        <v>4488.454114618195</v>
       </c>
       <c r="S26">
-        <v>0.000657438110788986</v>
+        <v>0.002165376764268865</v>
       </c>
       <c r="T26">
-        <v>0.0004899031850978601</v>
+        <v>0.00160966331265159</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>88.97649266666667</v>
+        <v>69.033643</v>
       </c>
       <c r="H27">
-        <v>266.929478</v>
+        <v>207.100929</v>
       </c>
       <c r="I27">
-        <v>0.1653785353432923</v>
+        <v>0.117246251345688</v>
       </c>
       <c r="J27">
-        <v>0.180972579418846</v>
+        <v>0.1275186191234094</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O27">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P27">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q27">
-        <v>12429.55483071301</v>
+        <v>9643.642102717115</v>
       </c>
       <c r="R27">
-        <v>111865.9934764171</v>
+        <v>86792.77892445405</v>
       </c>
       <c r="S27">
-        <v>0.0454871738218679</v>
+        <v>0.02791444626443494</v>
       </c>
       <c r="T27">
-        <v>0.05084351888961045</v>
+        <v>0.03112589512339435</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>88.97649266666667</v>
+        <v>69.033643</v>
       </c>
       <c r="H28">
-        <v>266.929478</v>
+        <v>207.100929</v>
       </c>
       <c r="I28">
-        <v>0.1653785353432923</v>
+        <v>0.117246251345688</v>
       </c>
       <c r="J28">
-        <v>0.180972579418846</v>
+        <v>0.1275186191234094</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N28">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O28">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P28">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q28">
-        <v>16581.20127066991</v>
+        <v>10363.39123676584</v>
       </c>
       <c r="R28">
-        <v>149230.8114360292</v>
+        <v>93270.52113089256</v>
       </c>
       <c r="S28">
-        <v>0.06068053077095385</v>
+        <v>0.0299978291100733</v>
       </c>
       <c r="T28">
-        <v>0.0678259705596695</v>
+        <v>0.03344896309117413</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>88.97649266666667</v>
+        <v>69.033643</v>
       </c>
       <c r="H29">
-        <v>266.929478</v>
+        <v>207.100929</v>
       </c>
       <c r="I29">
-        <v>0.1653785353432923</v>
+        <v>0.117246251345688</v>
       </c>
       <c r="J29">
-        <v>0.180972579418846</v>
+        <v>0.1275186191234094</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N29">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O29">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P29">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q29">
-        <v>2666.031522643204</v>
+        <v>2241.468749069389</v>
       </c>
       <c r="R29">
-        <v>15996.18913585922</v>
+        <v>13448.81249441633</v>
       </c>
       <c r="S29">
-        <v>0.009756603590129864</v>
+        <v>0.006488146105264382</v>
       </c>
       <c r="T29">
-        <v>0.007270328713992027</v>
+        <v>0.004823054779704205</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>88.97649266666667</v>
+        <v>69.033643</v>
       </c>
       <c r="H30">
-        <v>266.929478</v>
+        <v>207.100929</v>
       </c>
       <c r="I30">
-        <v>0.1653785353432923</v>
+        <v>0.117246251345688</v>
       </c>
       <c r="J30">
-        <v>0.180972579418846</v>
+        <v>0.1275186191234094</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N30">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O30">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P30">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q30">
-        <v>556.4336564957542</v>
+        <v>3595.979054955534</v>
       </c>
       <c r="R30">
-        <v>5007.902908461789</v>
+        <v>32363.81149459981</v>
       </c>
       <c r="S30">
-        <v>0.00203632348849842</v>
+        <v>0.01040890599510195</v>
       </c>
       <c r="T30">
-        <v>0.002276110891353138</v>
+        <v>0.01160641028962831</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>88.97649266666667</v>
+        <v>69.033643</v>
       </c>
       <c r="H31">
-        <v>266.929478</v>
+        <v>207.100929</v>
       </c>
       <c r="I31">
-        <v>0.1653785353432923</v>
+        <v>0.117246251345688</v>
       </c>
       <c r="J31">
-        <v>0.180972579418846</v>
+        <v>0.1275186191234094</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N31">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O31">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P31">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q31">
-        <v>12777.48696537754</v>
+        <v>13912.66670809922</v>
       </c>
       <c r="R31">
-        <v>114997.3826883979</v>
+        <v>125214.000372893</v>
       </c>
       <c r="S31">
-        <v>0.0467604655610533</v>
+        <v>0.04027154710654457</v>
       </c>
       <c r="T31">
-        <v>0.05226674717912304</v>
+        <v>0.0449046325268568</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>85.58353199999999</v>
+        <v>164.5962956666667</v>
       </c>
       <c r="H32">
-        <v>256.750596</v>
+        <v>493.788887</v>
       </c>
       <c r="I32">
-        <v>0.1590721183480431</v>
+        <v>0.279549185203846</v>
       </c>
       <c r="J32">
-        <v>0.1740715112230731</v>
+        <v>0.3040414995372872</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N32">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O32">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P32">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q32">
-        <v>172.797087950472</v>
+        <v>1783.630146188197</v>
       </c>
       <c r="R32">
-        <v>1036.782527702832</v>
+        <v>10701.78087712918</v>
       </c>
       <c r="S32">
-        <v>0.0006323678750017492</v>
+        <v>0.005162888392277491</v>
       </c>
       <c r="T32">
-        <v>0.0004712215964254568</v>
+        <v>0.003837905795193037</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>85.58353199999999</v>
+        <v>164.5962956666667</v>
       </c>
       <c r="H33">
-        <v>256.750596</v>
+        <v>493.788887</v>
       </c>
       <c r="I33">
-        <v>0.1590721183480431</v>
+        <v>0.279549185203846</v>
       </c>
       <c r="J33">
-        <v>0.1740715112230731</v>
+        <v>0.3040414995372872</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O33">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P33">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q33">
-        <v>11955.5758124258</v>
+        <v>22993.24934716746</v>
       </c>
       <c r="R33">
-        <v>107600.1823118322</v>
+        <v>206939.2441245072</v>
       </c>
       <c r="S33">
-        <v>0.04375260116127069</v>
+        <v>0.06655616379266285</v>
       </c>
       <c r="T33">
-        <v>0.04890469151423111</v>
+        <v>0.07421319249543118</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>85.58353199999999</v>
+        <v>164.5962956666667</v>
       </c>
       <c r="H34">
-        <v>256.750596</v>
+        <v>493.788887</v>
       </c>
       <c r="I34">
-        <v>0.1590721183480431</v>
+        <v>0.279549185203846</v>
       </c>
       <c r="J34">
-        <v>0.1740715112230731</v>
+        <v>0.3040414995372872</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N34">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O34">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P34">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q34">
-        <v>15948.90658213648</v>
+        <v>24709.34075022019</v>
       </c>
       <c r="R34">
-        <v>143540.1592392283</v>
+        <v>222384.0667519817</v>
       </c>
       <c r="S34">
-        <v>0.05836658640241577</v>
+        <v>0.07152355482036153</v>
       </c>
       <c r="T34">
-        <v>0.06523954752376054</v>
+        <v>0.07975206260950647</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>85.58353199999999</v>
+        <v>164.5962956666667</v>
       </c>
       <c r="H35">
-        <v>256.750596</v>
+        <v>493.788887</v>
       </c>
       <c r="I35">
-        <v>0.1590721183480431</v>
+        <v>0.279549185203846</v>
       </c>
       <c r="J35">
-        <v>0.1740715112230731</v>
+        <v>0.3040414995372872</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N35">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O35">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P35">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q35">
-        <v>2564.367141172133</v>
+        <v>5344.313828974934</v>
       </c>
       <c r="R35">
-        <v>15386.2028470328</v>
+        <v>32065.88297384961</v>
       </c>
       <c r="S35">
-        <v>0.009384552824478911</v>
+        <v>0.01546962855010604</v>
       </c>
       <c r="T35">
-        <v>0.00699308762906046</v>
+        <v>0.01149956624100981</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>85.58353199999999</v>
+        <v>164.5962956666667</v>
       </c>
       <c r="H36">
-        <v>256.750596</v>
+        <v>493.788887</v>
       </c>
       <c r="I36">
-        <v>0.1590721183480431</v>
+        <v>0.279549185203846</v>
       </c>
       <c r="J36">
-        <v>0.1740715112230731</v>
+        <v>0.3040414995372872</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N36">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O36">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P36">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q36">
-        <v>535.2150463492239</v>
+        <v>8573.860599253059</v>
       </c>
       <c r="R36">
-        <v>4816.935417143016</v>
+        <v>77164.74539327752</v>
       </c>
       <c r="S36">
-        <v>0.001958671905546409</v>
+        <v>0.02481786118018342</v>
       </c>
       <c r="T36">
-        <v>0.002189315441275502</v>
+        <v>0.02767305992616243</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>85.58353199999999</v>
+        <v>164.5962956666667</v>
       </c>
       <c r="H37">
-        <v>256.750596</v>
+        <v>493.788887</v>
       </c>
       <c r="I37">
-        <v>0.1590721183480431</v>
+        <v>0.279549185203846</v>
       </c>
       <c r="J37">
-        <v>0.1740715112230731</v>
+        <v>0.3040414995372872</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N37">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O37">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P37">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q37">
-        <v>12290.24017251071</v>
+        <v>33171.84641404613</v>
       </c>
       <c r="R37">
-        <v>110612.1615525964</v>
+        <v>298546.6177264151</v>
       </c>
       <c r="S37">
-        <v>0.04497733817932955</v>
+        <v>0.09601908846825462</v>
       </c>
       <c r="T37">
-        <v>0.05027364751832002</v>
+        <v>0.1070657124699842</v>
       </c>
     </row>
   </sheetData>
